--- a/biology/Botanique/Meunier_(cépage)/Meunier_(cépage).xlsx
+++ b/biology/Botanique/Meunier_(cépage)/Meunier_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meunier_(c%C3%A9page)</t>
+          <t>Meunier_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le meunier[1] ou pinot meunier est un cépage noir de cuve, issu d'une mutation du pinot noir[2]. Il est essentiellement présent dans le vignoble de Champagne[3] (il représente le tiers de l'encépagement champenois) en France. C'est le cépage typique de l'AOC Orléans.
+Le meunier ou pinot meunier est un cépage noir de cuve, issu d'une mutation du pinot noir. Il est essentiellement présent dans le vignoble de Champagne (il représente le tiers de l'encépagement champenois) en France. C'est le cépage typique de l'AOC Orléans.
 C'est un plant de vigueur moyenne. Il résiste assez bien aux gelées d'hiver et se plaît assez bien dans des sols argileux et humides. Son vin est peu coloré, moins fin et moins alcoolique que celui du pinot noir. Ses arômes sont fruités (banane, framboise, pomme).
 Il est classé recommandé en Champagne, dans le vignoble du Val-de-Loire et en Bourgogne.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meunier_(c%C3%A9page)</t>
+          <t>Meunier_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le meunier est aussi connu sous les noms suivants :
 Auvernat gris
@@ -570,7 +584,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Meunier_(c%C3%A9page)</t>
+          <t>Meunier_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -588,9 +602,11 @@
           <t>Cycle végétatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son cycle végétatif a une durée approximative de 170 jours de son entrée en végétation jusqu’à la maturité des baies. La floraison est légèrement plus tardive que celle du pinot noir ce qui le rend plus sensible à la coulure et au millerandage. Sa maturité est de 1re époque tardive[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son cycle végétatif a une durée approximative de 170 jours de son entrée en végétation jusqu’à la maturité des baies. La floraison est légèrement plus tardive que celle du pinot noir ce qui le rend plus sensible à la coulure et au millerandage. Sa maturité est de 1re époque tardive.
 </t>
         </is>
       </c>
